--- a/Categories.xlsx
+++ b/Categories.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cheolmin.hwang\Documents\UiPath\OrchestrationPOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cheolmin.hwang\Documents\UiPath\SunWest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IdentifiedCat" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Category_C" sheetId="4" r:id="rId5"/>
     <sheet name="Category_D" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -721,22 +721,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -749,19 +749,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -772,7 +773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -782,8 +783,12 @@
       <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="str">
+        <f>CONCATENATE(B2," - ",C:C)</f>
+        <v>C01 - Document Received</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -793,8 +798,12 @@
       <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="3" t="str">
+        <f t="shared" ref="D3:D23" si="0">CONCATENATE(B3," - ",C:C)</f>
+        <v>C02 - Question Related to an unknown condition</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -804,8 +813,12 @@
       <c r="C4" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>C03 - Question Related to an known condition</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -815,8 +828,12 @@
       <c r="C5" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>C04 - Question on unknown Condition Resolution ETA</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>72</v>
       </c>
@@ -826,8 +843,12 @@
       <c r="C6" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>C05a - Qusetion on known Condition Resolution ETA</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>73</v>
       </c>
@@ -837,8 +858,12 @@
       <c r="C7" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>C05b - Question on CD ETA</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>74</v>
       </c>
@@ -848,8 +873,12 @@
       <c r="C8" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>C06a - Question about Docs ETA</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>75</v>
       </c>
@@ -859,8 +888,12 @@
       <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>C06b - Question on Loan Status</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>76</v>
       </c>
@@ -870,8 +903,12 @@
       <c r="C10" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>C07 - Question on Payment Status</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>50</v>
       </c>
@@ -881,8 +918,12 @@
       <c r="C11" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>C08 - Question on Other</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>52</v>
       </c>
@@ -892,8 +933,12 @@
       <c r="C12" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>C09 - Response related to a Condition</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>54</v>
       </c>
@@ -903,8 +948,12 @@
       <c r="C13" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>C10 - Request for CTC</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>56</v>
       </c>
@@ -914,8 +963,12 @@
       <c r="C14" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>C11 - Request to esclalate CD</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>58</v>
       </c>
@@ -925,8 +978,12 @@
       <c r="C15" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>C12 - Request to provide Document</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>60</v>
       </c>
@@ -936,8 +993,12 @@
       <c r="C16" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>C13 - Request to Update Data</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>62</v>
       </c>
@@ -947,8 +1008,12 @@
       <c r="C17" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>C14 - Request Other</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>64</v>
       </c>
@@ -958,8 +1023,12 @@
       <c r="C18" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>C15 - Manual Queue</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
@@ -969,8 +1038,12 @@
       <c r="C19" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>C16 - Manual Queue for TAT</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>68</v>
       </c>
@@ -980,8 +1053,12 @@
       <c r="C20" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>C17 - Urgent Queue</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>77</v>
       </c>
@@ -991,8 +1068,12 @@
       <c r="C21" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>C18 - Get Loan Number Queue</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>78</v>
       </c>
@@ -1002,8 +1083,12 @@
       <c r="C22" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>C19 - Request Password Queue</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>79</v>
       </c>
@@ -1012,6 +1097,10 @@
       </c>
       <c r="C23" s="2" t="s">
         <v>71</v>
+      </c>
+      <c r="D23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>C99 - No Action Required</v>
       </c>
     </row>
   </sheetData>
@@ -1022,20 +1111,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,7 +1135,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>80</v>
       </c>
@@ -1054,8 +1143,12 @@
         <v>81</v>
       </c>
       <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F2" t="str">
+        <f>CONCATENATE(A2," - ",B2)</f>
+        <v>A01 - Download and Upload Attachments</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>82</v>
       </c>
@@ -1063,8 +1156,12 @@
         <v>83</v>
       </c>
       <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F3" s="3" t="str">
+        <f t="shared" ref="F3:F13" si="0">CONCATENATE(A3," - ",B3)</f>
+        <v>A02 - Download and Uplaod Attachments (PP)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>84</v>
       </c>
@@ -1072,8 +1169,12 @@
         <v>85</v>
       </c>
       <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>A02a - Send to sysadmin for decryption</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>86</v>
       </c>
@@ -1081,8 +1182,12 @@
         <v>87</v>
       </c>
       <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>E01 - Send standard acknowledgment (no ETA)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>88</v>
       </c>
@@ -1090,8 +1195,12 @@
         <v>89</v>
       </c>
       <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>E02 - Send acknowledgment with ETA</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>90</v>
       </c>
@@ -1099,8 +1208,12 @@
         <v>91</v>
       </c>
       <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>E03 - Respond to sender (Template)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>92</v>
       </c>
@@ -1108,8 +1221,12 @@
         <v>93</v>
       </c>
       <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>L01 - Document Link Processing</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>94</v>
       </c>
@@ -1117,8 +1234,12 @@
         <v>95</v>
       </c>
       <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>L01a - Document Processing for Zix</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>96</v>
       </c>
@@ -1126,8 +1247,12 @@
         <v>97</v>
       </c>
       <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>L01b - Document Processing for Outlook</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>98</v>
       </c>
@@ -1135,8 +1260,12 @@
         <v>99</v>
       </c>
       <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>L01c - Document Processing for Qualia</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>100</v>
       </c>
@@ -1144,8 +1273,12 @@
         <v>101</v>
       </c>
       <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>L01d - Document Processing for DHI Title</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>102</v>
       </c>
@@ -1153,6 +1286,10 @@
         <v>103</v>
       </c>
       <c r="C13" s="5"/>
+      <c r="F13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>L01e - Document Processing for Citrix</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1164,17 +1301,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="1" max="1" width="44.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>108</v>
       </c>
@@ -1185,7 +1322,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>111</v>
       </c>
@@ -1196,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>113</v>
       </c>
@@ -1225,12 +1362,12 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1241,7 +1378,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1252,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1263,7 +1400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1274,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1285,7 +1422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1310,12 +1447,12 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1326,7 +1463,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1337,7 +1474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1348,7 +1485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1359,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1370,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
